--- a/matched_numbers.xlsx
+++ b/matched_numbers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,698 +462,761 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9915665174</t>
+          <t>7973378640</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>KULDEEP ELEC,JANDIALA ! C4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D225</t>
+          <t>D457</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9041218571</t>
+          <t>7347507380</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>KULDEEP ELEC,JANDIALA ! C7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D226</t>
+          <t>D626</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9988607813</t>
+          <t>9779654809</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>KULDEEP ELEC,JANDIALA ! C11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D227</t>
+          <t>D458</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8728841180</t>
+          <t>9888306743</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>KULDEEP ELEC,JANDIALA ! C14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D267</t>
+          <t>D502</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9417652431</t>
+          <t>9781557005</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>KULDEEP ELEC,JANDIALA ! C15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D228</t>
+          <t>D627</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9816564113</t>
+          <t>9646417132</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>DHEERA KHADUR SAHIB ! C4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D285</t>
+          <t>D223</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8146470349</t>
+          <t>9646151695</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>DHEERA KHADUR SAHIB ! C5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>D265</t>
+          <t>D358</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6283747293</t>
+          <t>9876295195</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>DHEERA KHADUR SAHIB ! C8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>D277</t>
+          <t>D359</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9816592693</t>
+          <t>9501397554</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>DHEERA KHADUR SAHIB ! C9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>D229</t>
+          <t>D668</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7652893808</t>
+          <t>9417174730</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>DHEERA KHADUR SAHIB ! C11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D235</t>
+          <t>D669</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7889299832</t>
+          <t>9876141813</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C25</t>
+          <t>DHEERA KHADUR SAHIB ! C12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D282</t>
+          <t>D389</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8894561068</t>
+          <t>7087353993</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C26</t>
+          <t>DHEERA KHADUR SAHIB ! C17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>D310</t>
+          <t>D363</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6284616308</t>
+          <t>9814398444</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C27</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D268</t>
+          <t>D649</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8195078530</t>
+          <t>9780886866</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C29</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D253</t>
+          <t>D483</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8360574131</t>
+          <t>9888486156</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D234</t>
+          <t>D719</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9781404621</t>
+          <t>9888685307</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C39</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D327</t>
+          <t>D650</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8872113365</t>
+          <t>6283277506</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C41</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D252</t>
+          <t>D795</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9781419994</t>
+          <t>9878764630</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C46</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D289</t>
+          <t>D489</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8146705107</t>
+          <t>9876156708</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C56</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D233</t>
+          <t>D580</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8580453551</t>
+          <t>9814716884</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C72</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C24</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D260</t>
+          <t>D659</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9988355442</t>
+          <t>7508832005</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C78</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>D254</t>
+          <t>D497</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7973468900</t>
+          <t>8437930202</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C100</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D240</t>
+          <t>D652</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8219645006</t>
+          <t>9872523803</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>D246</t>
+          <t>D655</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9417697257</t>
+          <t>8968072189</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C109</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C38</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>D245</t>
+          <t>D492</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8580933073</t>
+          <t>9056491171</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C111</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C44</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>D247</t>
+          <t>D474</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9878649946</t>
+          <t>9876881096</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C114</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C47</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>D249</t>
+          <t>D477</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7018236385</t>
+          <t>9815785619</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C117</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>D243</t>
+          <t>D707</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7340996947</t>
+          <t>7710716220</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C118</t>
+          <t>ASHOK SHIV SHAKTI QUADIAN ! C54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>D264</t>
+          <t>D673</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8580876886</t>
+          <t>9646466364</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C120</t>
+          <t>SARABJIT ELECT,AMRITSAR ! C6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>D275</t>
+          <t>D849</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9041744093</t>
+          <t>8437799359</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C121</t>
+          <t>SARABJIT ELECT,AMRITSAR ! C7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>D271</t>
+          <t>D927</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8725806315</t>
+          <t>9781383154</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C124</t>
+          <t>SARABJIT ELECT,AMRITSAR ! C11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>D248</t>
+          <t>D859</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7009297356</t>
+          <t>9915958319</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C125</t>
+          <t>SARABJIT ELECT,AMRITSAR ! C27</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>D269</t>
+          <t>D861</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7018567607</t>
+          <t>8284866066</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C132</t>
+          <t>SARABJIT ELECT,AMRITSAR ! C30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>D251</t>
+          <t>D875</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9914586709</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SARABJIT ELECT,AMRITSAR ! C32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>D865</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9814511915</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SARABJIT ELECT,AMRITSAR ! C33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>D958</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>6284566326</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>KHULLAR AMRITSAR ! C7</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>D946</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>